--- a/data/provincias_hoy.xlsx
+++ b/data/provincias_hoy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73379E68-8D56-4324-BBA4-403D8C82F1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB67556-3E47-4F2C-9721-D03E57041C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="645" windowWidth="9630" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
+    <workbookView xWindow="-945" yWindow="690" windowWidth="10050" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="provincias_hoy" sheetId="1" r:id="rId1"/>
@@ -601,10 +601,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C19BAB-C90A-4182-ABC1-5A7AD1AE7D36}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,13 +663,13 @@
         <v>43949</v>
       </c>
       <c r="C2" s="2">
-        <v>1532</v>
+        <v>1598</v>
       </c>
       <c r="D2" s="2">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="E2" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
